--- a/carteira.xlsx
+++ b/carteira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff2fcee2c9ab957e/Documentos/GitHub/automacaoFinancas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6689F8B-4FB9-4948-9FA2-B30E415052C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C6689F8B-4FB9-4948-9FA2-B30E415052C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{693B91FB-DB42-476F-9FDD-DC454F1F4354}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3999EAA3-DF23-4EE7-9B95-C07C6357846D}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Cotas</t>
   </si>
   <si>
-    <t>ENGIE3</t>
-  </si>
-  <si>
     <t>AGRO3</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Máquinas e Equipamentos</t>
+  </si>
+  <si>
+    <t>EGIE3</t>
   </si>
 </sst>
 </file>
@@ -542,13 +542,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3">
         <v>100</v>
@@ -556,13 +556,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3">
         <v>100</v>
@@ -570,13 +570,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
         <v>50</v>
@@ -584,13 +584,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="3">
         <v>75</v>
@@ -598,13 +598,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="3">
         <v>100</v>
@@ -612,13 +612,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="3">
         <v>50</v>
@@ -626,13 +626,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
@@ -640,13 +640,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="3">
         <v>100</v>
@@ -654,13 +654,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="3">
         <v>50</v>
